--- a/Instructions/task_links.xlsx
+++ b/Instructions/task_links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianredl/Dropbox (Harvard University)/Attenuation/Instructions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868A1E37-1FC2-E44C-A907-67889712CE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1702292-6696-1340-879B-ADEF3D075E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="2000" windowWidth="26840" windowHeight="15440" xr2:uid="{887797C0-3C36-5A48-9166-75D340F88F0F}"/>
   </bookViews>
@@ -653,7 +653,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Instructions/task_links.xlsx
+++ b/Instructions/task_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianredl/Dropbox (Harvard University)/Attenuation/Instructions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1702292-6696-1340-879B-ADEF3D075E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96216334-75BC-6448-BC1A-08DC7D82DC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="2000" windowWidth="26840" windowHeight="15440" xr2:uid="{887797C0-3C36-5A48-9166-75D340F88F0F}"/>
+    <workbookView xWindow="-3860" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{887797C0-3C36-5A48-9166-75D340F88F0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -652,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244F76D7-917D-A349-B736-71CE976C95F0}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -708,7 +708,7 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="E3" t="s">
@@ -725,10 +725,10 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>75</v>
-      </c>
       <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
         <v>75</v>
       </c>
       <c r="F4" t="s">
@@ -742,10 +742,10 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
       <c r="D5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" t="s">
         <v>75</v>
       </c>
       <c r="F5" t="s">
@@ -776,7 +776,7 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="E7" t="s">
@@ -793,10 +793,10 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>75</v>
-      </c>
       <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
         <v>75</v>
       </c>
       <c r="F8" t="s">
@@ -810,10 +810,10 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
       <c r="D9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" t="s">
         <v>75</v>
       </c>
       <c r="F9" t="s">
@@ -852,7 +852,7 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B12" t="s">
         <v>75</v>
       </c>
       <c r="E12" t="s">
@@ -869,10 +869,10 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>75</v>
-      </c>
       <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
         <v>75</v>
       </c>
       <c r="F13" t="s">
@@ -886,10 +886,10 @@
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
       <c r="D14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" t="s">
         <v>75</v>
       </c>
       <c r="F14" t="s">
@@ -920,7 +920,7 @@
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B16" t="s">
         <v>75</v>
       </c>
       <c r="E16" t="s">
@@ -937,10 +937,10 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>75</v>
-      </c>
       <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
         <v>75</v>
       </c>
       <c r="F17" t="s">
@@ -954,10 +954,10 @@
       <c r="A18" t="s">
         <v>16</v>
       </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
       <c r="D18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" t="s">
         <v>75</v>
       </c>
       <c r="F18" t="s">
@@ -988,7 +988,7 @@
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B20" t="s">
         <v>75</v>
       </c>
       <c r="E20" t="s">
@@ -1005,10 +1005,10 @@
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>75</v>
-      </c>
       <c r="D21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" t="s">
         <v>75</v>
       </c>
       <c r="F21" t="s">
@@ -1022,10 +1022,10 @@
       <c r="A22" t="s">
         <v>20</v>
       </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
       <c r="D22" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" t="s">
         <v>75</v>
       </c>
       <c r="F22" t="s">
@@ -1056,7 +1056,7 @@
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="C24" t="s">
+      <c r="B24" t="s">
         <v>75</v>
       </c>
       <c r="E24" t="s">
@@ -1073,10 +1073,10 @@
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>75</v>
-      </c>
       <c r="D25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" t="s">
         <v>75</v>
       </c>
       <c r="F25" t="s">
@@ -1090,10 +1090,10 @@
       <c r="A26" t="s">
         <v>24</v>
       </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
       <c r="D26" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" t="s">
         <v>75</v>
       </c>
       <c r="F26" t="s">
@@ -1124,7 +1124,7 @@
       <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="C28" t="s">
+      <c r="B28" t="s">
         <v>75</v>
       </c>
       <c r="E28" t="s">
@@ -1141,10 +1141,10 @@
       <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>75</v>
-      </c>
       <c r="D29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" t="s">
         <v>75</v>
       </c>
       <c r="F29" t="s">
@@ -1158,10 +1158,10 @@
       <c r="A30" t="s">
         <v>28</v>
       </c>
+      <c r="C30" t="s">
+        <v>75</v>
+      </c>
       <c r="D30" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" t="s">
         <v>75</v>
       </c>
       <c r="F30" t="s">
@@ -1200,7 +1200,7 @@
       <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="C33" t="s">
+      <c r="B33" t="s">
         <v>75</v>
       </c>
       <c r="E33" t="s">
@@ -1217,10 +1217,10 @@
       <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>75</v>
-      </c>
       <c r="D34" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" t="s">
         <v>75</v>
       </c>
       <c r="F34" t="s">
@@ -1242,10 +1242,10 @@
       <c r="A36" t="s">
         <v>34</v>
       </c>
+      <c r="C36" t="s">
+        <v>75</v>
+      </c>
       <c r="D36" t="s">
-        <v>75</v>
-      </c>
-      <c r="E36" t="s">
         <v>75</v>
       </c>
       <c r="F36" t="s">

--- a/Instructions/task_links.xlsx
+++ b/Instructions/task_links.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianredl/Dropbox (Harvard University)/Attenuation/Instructions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminenke/Dropbox/Research/Projects/Attenuation/Instructions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96216334-75BC-6448-BC1A-08DC7D82DC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015506A0-EDB3-034C-8F85-C650004D6243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3860" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{887797C0-3C36-5A48-9166-75D340F88F0F}"/>
+    <workbookView xWindow="1900" yWindow="-19240" windowWidth="31460" windowHeight="14440" xr2:uid="{887797C0-3C36-5A48-9166-75D340F88F0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="79">
   <si>
     <t>SAV</t>
   </si>
@@ -279,7 +279,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -289,6 +289,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -311,13 +319,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -653,7 +664,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -697,10 +708,10 @@
       <c r="C2" t="s">
         <v>75</v>
       </c>
-      <c r="F2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1257,6 +1268,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{B237ECDA-2B5B-FC43-98A2-36645685A23B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Instructions/task_links.xlsx
+++ b/Instructions/task_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminenke/Dropbox/Research/Projects/Attenuation/Instructions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015506A0-EDB3-034C-8F85-C650004D6243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89BDC05-D411-204B-B752-A0A607A2370E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="-19240" windowWidth="31460" windowHeight="14440" xr2:uid="{887797C0-3C36-5A48-9166-75D340F88F0F}"/>
+    <workbookView xWindow="1900" yWindow="-20300" windowWidth="31460" windowHeight="14440" xr2:uid="{887797C0-3C36-5A48-9166-75D340F88F0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="79">
   <si>
     <t>SAV</t>
   </si>
@@ -664,7 +664,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -709,7 +709,7 @@
         <v>75</v>
       </c>
       <c r="F2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>37</v>
@@ -728,7 +728,7 @@
       <c r="F3" t="s">
         <v>78</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -759,10 +759,10 @@
       <c r="D5" t="s">
         <v>75</v>
       </c>
-      <c r="F5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="F5">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -776,8 +776,8 @@
       <c r="C6" t="s">
         <v>75</v>
       </c>
-      <c r="F6" t="s">
-        <v>78</v>
+      <c r="F6">
+        <v>15</v>
       </c>
       <c r="G6" t="s">
         <v>41</v>
@@ -1270,6 +1270,8 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{B237ECDA-2B5B-FC43-98A2-36645685A23B}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{627DE885-0AF2-1C45-B2E3-3053EEA061F3}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{FACD9BF2-EAEE-F343-AD2B-8881F215254B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Instructions/task_links.xlsx
+++ b/Instructions/task_links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminenke/Dropbox/Research/Projects/Attenuation/Instructions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89BDC05-D411-204B-B752-A0A607A2370E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D48010F-5D10-5641-A642-17D5E5BC18CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="-20300" windowWidth="31460" windowHeight="14440" xr2:uid="{887797C0-3C36-5A48-9166-75D340F88F0F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="80">
   <si>
     <t>SAV</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -664,7 +667,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -821,16 +824,16 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>75</v>
-      </c>
       <c r="D9" t="s">
         <v>75</v>
       </c>
+      <c r="E9" t="s">
+        <v>79</v>
+      </c>
       <c r="F9" t="s">
         <v>78</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -866,8 +869,8 @@
       <c r="B12" t="s">
         <v>75</v>
       </c>
-      <c r="E12" t="s">
-        <v>75</v>
+      <c r="C12" t="s">
+        <v>79</v>
       </c>
       <c r="F12" t="s">
         <v>78</v>
@@ -1272,6 +1275,7 @@
     <hyperlink ref="G2" r:id="rId1" xr:uid="{B237ECDA-2B5B-FC43-98A2-36645685A23B}"/>
     <hyperlink ref="G3" r:id="rId2" xr:uid="{627DE885-0AF2-1C45-B2E3-3053EEA061F3}"/>
     <hyperlink ref="G5" r:id="rId3" xr:uid="{FACD9BF2-EAEE-F343-AD2B-8881F215254B}"/>
+    <hyperlink ref="G9" r:id="rId4" xr:uid="{84B9D1E8-8CAC-CD46-B493-699177BF8213}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Instructions/task_links.xlsx
+++ b/Instructions/task_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminenke/Dropbox/Research/Projects/Attenuation/Instructions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D48010F-5D10-5641-A642-17D5E5BC18CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CA12C0-5171-D641-A1E0-8D4ACA72514B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="-20300" windowWidth="31460" windowHeight="14440" xr2:uid="{887797C0-3C36-5A48-9166-75D340F88F0F}"/>
+    <workbookView xWindow="0" yWindow="1060" windowWidth="28800" windowHeight="14440" xr2:uid="{887797C0-3C36-5A48-9166-75D340F88F0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="80">
   <si>
     <t>SAV</t>
   </si>
@@ -667,7 +667,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -855,10 +855,10 @@
       <c r="C11" t="s">
         <v>75</v>
       </c>
-      <c r="F11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="F11">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -872,8 +872,8 @@
       <c r="C12" t="s">
         <v>79</v>
       </c>
-      <c r="F12" t="s">
-        <v>78</v>
+      <c r="F12">
+        <v>10</v>
       </c>
       <c r="G12" t="s">
         <v>47</v>
@@ -906,8 +906,8 @@
       <c r="D14" t="s">
         <v>75</v>
       </c>
-      <c r="F14" t="s">
-        <v>78</v>
+      <c r="F14">
+        <v>15</v>
       </c>
       <c r="G14" t="s">
         <v>49</v>
@@ -923,8 +923,8 @@
       <c r="C15" t="s">
         <v>75</v>
       </c>
-      <c r="F15" t="s">
-        <v>78</v>
+      <c r="F15">
+        <v>12</v>
       </c>
       <c r="G15" t="s">
         <v>50</v>
@@ -1276,6 +1276,7 @@
     <hyperlink ref="G3" r:id="rId2" xr:uid="{627DE885-0AF2-1C45-B2E3-3053EEA061F3}"/>
     <hyperlink ref="G5" r:id="rId3" xr:uid="{FACD9BF2-EAEE-F343-AD2B-8881F215254B}"/>
     <hyperlink ref="G9" r:id="rId4" xr:uid="{84B9D1E8-8CAC-CD46-B493-699177BF8213}"/>
+    <hyperlink ref="G11" r:id="rId5" xr:uid="{85FC385D-359F-EF43-8E4D-3A3D6984D248}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Instructions/task_links.xlsx
+++ b/Instructions/task_links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminenke/Dropbox/Research/Projects/Attenuation/Instructions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CA12C0-5171-D641-A1E0-8D4ACA72514B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C0BE2B-CD63-6C4C-8D7E-B76F67CF19A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1060" windowWidth="28800" windowHeight="14440" xr2:uid="{887797C0-3C36-5A48-9166-75D340F88F0F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="80">
   <si>
     <t>SAV</t>
   </si>
@@ -666,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244F76D7-917D-A349-B736-71CE976C95F0}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -991,8 +991,8 @@
       <c r="C19" t="s">
         <v>75</v>
       </c>
-      <c r="F19" t="s">
-        <v>78</v>
+      <c r="F19">
+        <v>18</v>
       </c>
       <c r="G19" t="s">
         <v>54</v>
@@ -1042,8 +1042,8 @@
       <c r="D22" t="s">
         <v>75</v>
       </c>
-      <c r="F22" t="s">
-        <v>78</v>
+      <c r="F22">
+        <v>13</v>
       </c>
       <c r="G22" t="s">
         <v>57</v>
@@ -1059,8 +1059,8 @@
       <c r="C23" t="s">
         <v>75</v>
       </c>
-      <c r="F23" t="s">
-        <v>78</v>
+      <c r="F23">
+        <v>13</v>
       </c>
       <c r="G23" t="s">
         <v>58</v>
@@ -1110,10 +1110,10 @@
       <c r="D26" t="s">
         <v>75</v>
       </c>
-      <c r="F26" t="s">
-        <v>78</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="F26">
+        <v>13</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1127,8 +1127,8 @@
       <c r="C27" t="s">
         <v>75</v>
       </c>
-      <c r="F27" t="s">
-        <v>78</v>
+      <c r="F27">
+        <v>15</v>
       </c>
       <c r="G27" t="s">
         <v>62</v>
@@ -1178,8 +1178,8 @@
       <c r="D30" t="s">
         <v>75</v>
       </c>
-      <c r="F30" t="s">
-        <v>78</v>
+      <c r="F30">
+        <v>11</v>
       </c>
       <c r="G30" t="s">
         <v>65</v>
@@ -1203,8 +1203,8 @@
       <c r="C32" t="s">
         <v>75</v>
       </c>
-      <c r="F32" t="s">
-        <v>78</v>
+      <c r="F32">
+        <v>10</v>
       </c>
       <c r="G32" t="s">
         <v>67</v>
@@ -1277,6 +1277,7 @@
     <hyperlink ref="G5" r:id="rId3" xr:uid="{FACD9BF2-EAEE-F343-AD2B-8881F215254B}"/>
     <hyperlink ref="G9" r:id="rId4" xr:uid="{84B9D1E8-8CAC-CD46-B493-699177BF8213}"/>
     <hyperlink ref="G11" r:id="rId5" xr:uid="{85FC385D-359F-EF43-8E4D-3A3D6984D248}"/>
+    <hyperlink ref="G26" r:id="rId6" xr:uid="{D6477000-7E0F-2640-873E-EF5BE45DF233}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Instructions/task_links.xlsx
+++ b/Instructions/task_links.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminenke/Dropbox/Research/Projects/Attenuation/Instructions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianredl/Dropbox (Harvard University)/Attenuation/Instructions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C0BE2B-CD63-6C4C-8D7E-B76F67CF19A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F8DAAC-F48B-FB43-91F9-9E093EABF8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1060" windowWidth="28800" windowHeight="14440" xr2:uid="{887797C0-3C36-5A48-9166-75D340F88F0F}"/>
   </bookViews>
@@ -666,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244F76D7-917D-A349-B736-71CE976C95F0}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -968,7 +968,7 @@
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B18" t="s">
         <v>75</v>
       </c>
       <c r="D18" t="s">

--- a/Instructions/task_links.xlsx
+++ b/Instructions/task_links.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianredl/Dropbox (Harvard University)/Attenuation/Instructions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminenke/Dropbox/Research/Projects/Attenuation/Instructions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F8DAAC-F48B-FB43-91F9-9E093EABF8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FE96DA-7AD6-674A-9DA9-0B83296C52B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1060" windowWidth="28800" windowHeight="14440" xr2:uid="{887797C0-3C36-5A48-9166-75D340F88F0F}"/>
   </bookViews>
@@ -666,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244F76D7-917D-A349-B736-71CE976C95F0}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -968,7 +968,7 @@
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>75</v>
       </c>
       <c r="D18" t="s">
@@ -1130,7 +1130,7 @@
       <c r="F27">
         <v>15</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       <c r="F36" t="s">
         <v>78</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1278,6 +1278,8 @@
     <hyperlink ref="G9" r:id="rId4" xr:uid="{84B9D1E8-8CAC-CD46-B493-699177BF8213}"/>
     <hyperlink ref="G11" r:id="rId5" xr:uid="{85FC385D-359F-EF43-8E4D-3A3D6984D248}"/>
     <hyperlink ref="G26" r:id="rId6" xr:uid="{D6477000-7E0F-2640-873E-EF5BE45DF233}"/>
+    <hyperlink ref="G27" r:id="rId7" xr:uid="{E320C646-2E08-4F4B-B941-E16395B58D6A}"/>
+    <hyperlink ref="G36" r:id="rId8" xr:uid="{A972B98E-70B6-A243-A2CF-758ECB1D783F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Instructions/task_links.xlsx
+++ b/Instructions/task_links.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminenke/Dropbox/Research/Projects/Attenuation/Instructions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianredl/Dropbox (Harvard University)/Attenuation/Instructions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FE96DA-7AD6-674A-9DA9-0B83296C52B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6520D8-F142-F644-A40E-EB286A3D8283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1060" windowWidth="28800" windowHeight="14440" xr2:uid="{887797C0-3C36-5A48-9166-75D340F88F0F}"/>
   </bookViews>
@@ -666,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244F76D7-917D-A349-B736-71CE976C95F0}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -807,7 +807,7 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="E8" t="s">
@@ -917,10 +917,10 @@
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>75</v>
-      </c>
       <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
         <v>75</v>
       </c>
       <c r="F15">

--- a/Instructions/task_links.xlsx
+++ b/Instructions/task_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianredl/Dropbox (Harvard University)/Attenuation/Instructions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6520D8-F142-F644-A40E-EB286A3D8283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38B432D-CA9F-984C-A003-294BD81EA59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1060" windowWidth="28800" windowHeight="14440" xr2:uid="{887797C0-3C36-5A48-9166-75D340F88F0F}"/>
+    <workbookView xWindow="0" yWindow="1060" windowWidth="28800" windowHeight="15700" xr2:uid="{887797C0-3C36-5A48-9166-75D340F88F0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -667,7 +667,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -793,7 +793,7 @@
       <c r="B7" t="s">
         <v>75</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7" t="s">
         <v>75</v>
       </c>
       <c r="F7" t="s">
@@ -920,7 +920,7 @@
       <c r="C15" t="s">
         <v>75</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>75</v>
       </c>
       <c r="F15">

--- a/Instructions/task_links.xlsx
+++ b/Instructions/task_links.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianredl/Dropbox (Harvard University)/Attenuation/Instructions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tgraeber/Dropbox (Harvard University)/Attenuation/Instructions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38B432D-CA9F-984C-A003-294BD81EA59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E279FDA-CC36-9D44-A148-BC972194FF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1060" windowWidth="28800" windowHeight="15700" xr2:uid="{887797C0-3C36-5A48-9166-75D340F88F0F}"/>
+    <workbookView xWindow="1200" yWindow="1060" windowWidth="28800" windowHeight="15700" xr2:uid="{887797C0-3C36-5A48-9166-75D340F88F0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="81">
   <si>
     <t>SAV</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>✓</t>
   </si>
 </sst>
 </file>
@@ -667,7 +670,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -740,13 +743,13 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
         <v>75</v>
       </c>
-      <c r="F4" t="s">
-        <v>78</v>
+      <c r="F4">
+        <v>12</v>
       </c>
       <c r="G4" t="s">
         <v>39</v>
@@ -760,7 +763,7 @@
         <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F5">
         <v>15</v>
@@ -794,10 +797,10 @@
         <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
       </c>
       <c r="G7" t="s">
         <v>42</v>
@@ -825,13 +828,13 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
         <v>79</v>
       </c>
-      <c r="F9" t="s">
-        <v>78</v>
+      <c r="F9">
+        <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>44</v>
@@ -884,13 +887,13 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
         <v>75</v>
       </c>
-      <c r="F13" t="s">
-        <v>78</v>
+      <c r="F13">
+        <v>15</v>
       </c>
       <c r="G13" t="s">
         <v>48</v>
@@ -904,7 +907,7 @@
         <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F14">
         <v>15</v>
@@ -952,13 +955,13 @@
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
         <v>75</v>
       </c>
-      <c r="F17" t="s">
-        <v>78</v>
+      <c r="F17">
+        <v>10</v>
       </c>
       <c r="G17" t="s">
         <v>52</v>
@@ -972,10 +975,10 @@
         <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="F18">
+        <v>20</v>
       </c>
       <c r="G18" t="s">
         <v>53</v>
@@ -1020,13 +1023,13 @@
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
         <v>75</v>
       </c>
-      <c r="F21" t="s">
-        <v>78</v>
+      <c r="F21">
+        <v>15</v>
       </c>
       <c r="G21" t="s">
         <v>56</v>
@@ -1040,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F22">
         <v>13</v>
@@ -1088,13 +1091,13 @@
         <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
         <v>75</v>
       </c>
-      <c r="F25" t="s">
-        <v>78</v>
+      <c r="F25">
+        <v>12</v>
       </c>
       <c r="G25" t="s">
         <v>60</v>

--- a/Instructions/task_links.xlsx
+++ b/Instructions/task_links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tgraeber/Dropbox (Harvard University)/Attenuation/Instructions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E279FDA-CC36-9D44-A148-BC972194FF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F590A616-6AF5-5844-A875-F2AC0292AD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="1060" windowWidth="28800" windowHeight="15700" xr2:uid="{887797C0-3C36-5A48-9166-75D340F88F0F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="81">
   <si>
     <t>SAV</t>
   </si>
@@ -669,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244F76D7-917D-A349-B736-71CE976C95F0}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1111,7 +1111,7 @@
         <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F26">
         <v>13</v>
@@ -1159,13 +1159,13 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E29" t="s">
         <v>75</v>
       </c>
-      <c r="F29" t="s">
-        <v>78</v>
+      <c r="F29">
+        <v>12</v>
       </c>
       <c r="G29" t="s">
         <v>64</v>

--- a/Instructions/task_links.xlsx
+++ b/Instructions/task_links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tgraeber/Dropbox (Harvard University)/Attenuation/Instructions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F590A616-6AF5-5844-A875-F2AC0292AD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F317DF-8FAC-5045-9DE6-C98BD44D3B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="1060" windowWidth="28800" windowHeight="15700" xr2:uid="{887797C0-3C36-5A48-9166-75D340F88F0F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="81">
   <si>
     <t>SAV</t>
   </si>
@@ -285,7 +285,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -303,6 +303,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -329,9 +336,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -670,7 +678,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1179,7 +1187,7 @@
         <v>75</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F30">
         <v>11</v>
@@ -1235,13 +1243,13 @@
         <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E34" t="s">
         <v>75</v>
       </c>
-      <c r="F34" t="s">
-        <v>78</v>
+      <c r="F34">
+        <v>10</v>
       </c>
       <c r="G34" t="s">
         <v>69</v>
@@ -1262,11 +1270,11 @@
       <c r="C36" t="s">
         <v>75</v>
       </c>
-      <c r="D36" t="s">
-        <v>75</v>
-      </c>
-      <c r="F36" t="s">
-        <v>78</v>
+      <c r="D36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>71</v>

--- a/Instructions/task_links.xlsx
+++ b/Instructions/task_links.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tgraeber/Dropbox (Harvard University)/Attenuation/Instructions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianredl/Dropbox (Harvard University)/Attenuation/Instructions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F317DF-8FAC-5045-9DE6-C98BD44D3B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B485AD0-F3F9-F649-8DEB-EED55460B5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="1060" windowWidth="28800" windowHeight="15700" xr2:uid="{887797C0-3C36-5A48-9166-75D340F88F0F}"/>
+    <workbookView xWindow="0" yWindow="1060" windowWidth="28800" windowHeight="15700" xr2:uid="{887797C0-3C36-5A48-9166-75D340F88F0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -677,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244F76D7-917D-A349-B736-71CE976C95F0}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -917,6 +917,9 @@
       <c r="D14" t="s">
         <v>80</v>
       </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
       <c r="F14">
         <v>15</v>
       </c>
@@ -1168,9 +1171,6 @@
       </c>
       <c r="D29" t="s">
         <v>80</v>
-      </c>
-      <c r="E29" t="s">
-        <v>75</v>
       </c>
       <c r="F29">
         <v>12</v>

--- a/Instructions/task_links.xlsx
+++ b/Instructions/task_links.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianredl/Dropbox (Harvard University)/Attenuation/Instructions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B485AD0-F3F9-F649-8DEB-EED55460B5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181C327D-5465-4449-9076-2CE1476C4F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1060" windowWidth="28800" windowHeight="15700" xr2:uid="{887797C0-3C36-5A48-9166-75D340F88F0F}"/>
+    <workbookView xWindow="0" yWindow="1060" windowWidth="28800" windowHeight="15700" activeTab="1" xr2:uid="{887797C0-3C36-5A48-9166-75D340F88F0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="82">
   <si>
     <t>SAV</t>
   </si>
@@ -279,6 +280,9 @@
   </si>
   <si>
     <t>✓</t>
+  </si>
+  <si>
+    <t>payment</t>
   </si>
 </sst>
 </file>
@@ -336,10 +340,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -677,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244F76D7-917D-A349-B736-71CE976C95F0}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1042,7 +1047,7 @@
       <c r="F21">
         <v>15</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1291,7 +1296,454 @@
     <hyperlink ref="G26" r:id="rId6" xr:uid="{D6477000-7E0F-2640-873E-EF5BE45DF233}"/>
     <hyperlink ref="G27" r:id="rId7" xr:uid="{E320C646-2E08-4F4B-B941-E16395B58D6A}"/>
     <hyperlink ref="G36" r:id="rId8" xr:uid="{A972B98E-70B6-A243-A2CF-758ECB1D783F}"/>
+    <hyperlink ref="G21" r:id="rId9" xr:uid="{EABCF016-8027-8F43-8716-9378786481F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{752238C3-D8E7-D140-91D8-D88AA5598CAB}">
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3">
+        <f>B2/60*12</f>
+        <v>2.4000000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C36" si="0">B3/60*12</f>
+        <v>2.4000000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4000000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4000000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4000000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>15</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>13</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>12</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4000000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4000000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>13</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>15</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>15</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4000000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>11</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" si="0"/>
+        <v>2.1999999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>12</v>
+      </c>
+      <c r="C31" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4000000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>12</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4000000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>15</v>
+      </c>
+      <c r="C35" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Instructions/task_links.xlsx
+++ b/Instructions/task_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianredl/Dropbox (Harvard University)/Attenuation/Instructions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181C327D-5465-4449-9076-2CE1476C4F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1B4069-F3FF-AC42-A07A-AA917BCA7A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1060" windowWidth="28800" windowHeight="15700" activeTab="1" xr2:uid="{887797C0-3C36-5A48-9166-75D340F88F0F}"/>
+    <workbookView xWindow="-3860" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{887797C0-3C36-5A48-9166-75D340F88F0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="84">
   <si>
     <t>SAV</t>
   </si>
@@ -282,7 +282,13 @@
     <t>✓</t>
   </si>
   <si>
-    <t>payment</t>
+    <t>no_incentive</t>
+  </si>
+  <si>
+    <t>bonus_comp</t>
+  </si>
+  <si>
+    <t>expect_time</t>
   </si>
 </sst>
 </file>
@@ -340,11 +346,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -682,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244F76D7-917D-A349-B736-71CE976C95F0}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:F36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="A1:G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1166,7 +1171,7 @@
       <c r="F28" t="s">
         <v>78</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1297,6 +1302,7 @@
     <hyperlink ref="G27" r:id="rId7" xr:uid="{E320C646-2E08-4F4B-B941-E16395B58D6A}"/>
     <hyperlink ref="G36" r:id="rId8" xr:uid="{A972B98E-70B6-A243-A2CF-758ECB1D783F}"/>
     <hyperlink ref="G21" r:id="rId9" xr:uid="{EABCF016-8027-8F43-8716-9378786481F0}"/>
+    <hyperlink ref="G28" r:id="rId10" xr:uid="{294BC1A7-953B-C147-8A73-E57AD3197F71}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1304,446 +1310,887 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{752238C3-D8E7-D140-91D8-D88AA5598CAB}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>2.4</v>
+      </c>
+      <c r="D2">
         <v>12</v>
       </c>
-      <c r="C2" s="3">
-        <f>B2/60*12</f>
-        <v>2.4000000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" t="b">
+        <f>A2=E2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>2.4</v>
+      </c>
+      <c r="D3">
         <v>12</v>
       </c>
-      <c r="C3" s="3">
-        <f t="shared" ref="C3:C36" si="0">B3/60*12</f>
-        <v>2.4000000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" t="b">
+        <f t="shared" ref="R3:R36" si="0">A3=E3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2.4</v>
+      </c>
+      <c r="D4">
         <v>12</v>
       </c>
-      <c r="C4" s="3">
-        <f t="shared" si="0"/>
-        <v>2.4000000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="R6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="R7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>2.4</v>
+      </c>
+      <c r="D8">
         <v>12</v>
       </c>
-      <c r="C8" s="3">
-        <f t="shared" si="0"/>
-        <v>2.4000000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15</v>
-      </c>
-      <c r="C9" s="3">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R9" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>2.4</v>
+      </c>
+      <c r="D10">
         <v>12</v>
       </c>
-      <c r="C10" s="3">
-        <f t="shared" si="0"/>
-        <v>2.4000000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="R10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15</v>
-      </c>
-      <c r="C11" s="3">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>2.4</v>
+      </c>
+      <c r="D12">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="R12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15</v>
-      </c>
-      <c r="C13" s="3">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="R13" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15</v>
-      </c>
-      <c r="C14" s="3">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>49</v>
+      </c>
+      <c r="R14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>2.4</v>
+      </c>
+      <c r="D15">
         <v>12</v>
       </c>
-      <c r="C15" s="3">
-        <f t="shared" si="0"/>
-        <v>2.4000000000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
+      <c r="R15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>3.6</v>
+      </c>
+      <c r="D16">
         <v>18</v>
       </c>
-      <c r="C16" s="3">
-        <f t="shared" si="0"/>
-        <v>3.5999999999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+      <c r="R16" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
         <v>10</v>
       </c>
-      <c r="C17" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+      <c r="R17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
         <v>20</v>
       </c>
-      <c r="C18" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>53</v>
+      </c>
+      <c r="R18" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>3.6</v>
+      </c>
+      <c r="D19">
         <v>18</v>
       </c>
-      <c r="C19" s="3">
-        <f t="shared" si="0"/>
-        <v>3.5999999999999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>54</v>
+      </c>
+      <c r="R19" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15</v>
-      </c>
-      <c r="C20" s="3">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>55</v>
+      </c>
+      <c r="R20" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15</v>
-      </c>
-      <c r="C21" s="3">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R21" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>2.6</v>
+      </c>
+      <c r="D22">
         <v>13</v>
       </c>
-      <c r="C22" s="3">
-        <f t="shared" si="0"/>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>57</v>
+      </c>
+      <c r="R22" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>2.6</v>
+      </c>
+      <c r="D23">
         <v>13</v>
       </c>
-      <c r="C23" s="3">
-        <f t="shared" si="0"/>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>58</v>
+      </c>
+      <c r="R23" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>2.4</v>
+      </c>
+      <c r="D24">
         <v>12</v>
       </c>
-      <c r="C24" s="3">
-        <f t="shared" si="0"/>
-        <v>2.4000000000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
+        <v>59</v>
+      </c>
+      <c r="R24" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>2.4</v>
+      </c>
+      <c r="D25">
         <v>12</v>
       </c>
-      <c r="C25" s="3">
-        <f t="shared" si="0"/>
-        <v>2.4000000000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" t="s">
+        <v>60</v>
+      </c>
+      <c r="R25" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>2.6</v>
+      </c>
+      <c r="D26">
         <v>13</v>
       </c>
-      <c r="C26" s="3">
-        <f t="shared" si="0"/>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R26" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>15</v>
-      </c>
-      <c r="C27" s="3">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C27">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>15</v>
-      </c>
-      <c r="C28" s="3">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R28" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>2.4</v>
+      </c>
+      <c r="D29">
         <v>12</v>
       </c>
-      <c r="C29" s="3">
-        <f t="shared" si="0"/>
-        <v>2.4000000000000004</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" t="s">
+        <v>64</v>
+      </c>
+      <c r="R29" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D30">
         <v>11</v>
       </c>
-      <c r="C30" s="3">
-        <f t="shared" si="0"/>
-        <v>2.1999999999999997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" t="s">
+        <v>65</v>
+      </c>
+      <c r="R30" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>2.4</v>
+      </c>
+      <c r="D31">
         <v>12</v>
       </c>
-      <c r="C31" s="3">
-        <f t="shared" si="0"/>
-        <v>2.4000000000000004</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" t="s">
+        <v>66</v>
+      </c>
+      <c r="R31" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
         <v>10</v>
       </c>
-      <c r="C32" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" t="s">
+        <v>67</v>
+      </c>
+      <c r="R32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>2.4</v>
+      </c>
+      <c r="D33">
         <v>12</v>
       </c>
-      <c r="C33" s="3">
-        <f t="shared" si="0"/>
-        <v>2.4000000000000004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" t="s">
+        <v>68</v>
+      </c>
+      <c r="R33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
         <v>10</v>
       </c>
-      <c r="C34" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" t="s">
+        <v>69</v>
+      </c>
+      <c r="R34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>15</v>
-      </c>
-      <c r="C35" s="3">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C35">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" t="s">
+        <v>70</v>
+      </c>
+      <c r="R35" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
         <v>10</v>
       </c>
-      <c r="C36" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="E36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R36" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{C7C6CDF7-0094-AE45-B42A-B607C254F31D}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{4F3B8D67-ABEE-4742-90B0-6CE3D5320CCA}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{4A59F22F-562C-F44B-82A7-A1FDFB2B22B5}"/>
+    <hyperlink ref="F9" r:id="rId4" xr:uid="{59B13C95-82C0-884B-BD92-3530EC5FD113}"/>
+    <hyperlink ref="F11" r:id="rId5" xr:uid="{1A843E69-F2F1-5B4F-96EC-D794213503F4}"/>
+    <hyperlink ref="F26" r:id="rId6" xr:uid="{69BF33E8-6A9D-9A44-9449-FBFA209B789F}"/>
+    <hyperlink ref="F27" r:id="rId7" xr:uid="{49CB66F0-7CF5-7944-B134-CD74AE5036CF}"/>
+    <hyperlink ref="F36" r:id="rId8" xr:uid="{22D9D3E0-35EC-EC4E-BF9E-F4F2046BB020}"/>
+    <hyperlink ref="F21" r:id="rId9" xr:uid="{6E7C436D-FC71-9B4B-B627-487EA47C76E6}"/>
+    <hyperlink ref="F28" r:id="rId10" xr:uid="{728D516D-767F-2C4B-BD41-E03B2C8BA971}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Instructions/task_links.xlsx
+++ b/Instructions/task_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianredl/Dropbox (Harvard University)/Attenuation/Instructions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1B4069-F3FF-AC42-A07A-AA917BCA7A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF55779-7221-9D4A-8A40-CA68BC41F163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3860" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{887797C0-3C36-5A48-9166-75D340F88F0F}"/>
+    <workbookView xWindow="-3860" yWindow="-21100" windowWidth="38400" windowHeight="19880" xr2:uid="{887797C0-3C36-5A48-9166-75D340F88F0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -687,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244F76D7-917D-A349-B736-71CE976C95F0}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:G36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1185,7 +1185,7 @@
       <c r="F29">
         <v>12</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="1" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1303,6 +1303,7 @@
     <hyperlink ref="G36" r:id="rId8" xr:uid="{A972B98E-70B6-A243-A2CF-758ECB1D783F}"/>
     <hyperlink ref="G21" r:id="rId9" xr:uid="{EABCF016-8027-8F43-8716-9378786481F0}"/>
     <hyperlink ref="G28" r:id="rId10" xr:uid="{294BC1A7-953B-C147-8A73-E57AD3197F71}"/>
+    <hyperlink ref="G29" r:id="rId11" xr:uid="{5906564F-A064-5D4E-868B-54F2BBFF6059}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1312,8 +1313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{752238C3-D8E7-D140-91D8-D88AA5598CAB}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
